--- a/EE/rbg/referenceTable.xlsx
+++ b/EE/rbg/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\rbg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5794C9-77DE-4A00-8095-9E91A346A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6CB546-8938-4EE0-9468-E9AA5517DC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7785" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11984,8 +11984,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C1928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1654" workbookViewId="0">
-      <selection activeCell="A1274" sqref="A1274"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12089,7 +12089,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -13901,7 +13901,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>400</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>418</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>424</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>436</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>448</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>454</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>472</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>484</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>490</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>496</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>508</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>514</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>520</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>526</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>532</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>538</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>544</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>550</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>556</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>562</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>580</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>586</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>592</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>598</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>604</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>610</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>616</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>622</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>628</v>
       </c>
@@ -15773,7 +15773,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>636</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>642</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>644</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>646</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>648</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>650</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>652</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>658</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>664</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>670</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>676</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>682</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>688</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>694</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>700</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>706</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>708</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>714</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>720</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>726</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>732</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>738</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>740</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>742</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>748</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>750</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>752</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>754</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>756</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>762</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>768</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>774</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>780</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>786</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>792</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>798</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>804</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>810</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>816</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>822</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>828</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>834</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>840</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>842</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>844</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>846</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>848</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>854</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>860</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>866</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>872</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>878</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>884</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>890</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>892</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>894</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>896</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>898</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>900</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>902</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>904</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>906</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>908</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>910</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>912</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>914</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>920</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>926</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>928</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>930</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>932</v>
       </c>
@@ -17621,7 +17621,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>938</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>940</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>946</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>952</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>954</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>956</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>958</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>960</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>962</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>964</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>970</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>976</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>982</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>984</v>
       </c>
@@ -17909,7 +17909,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>986</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>988</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>990</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>992</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>998</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1004</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1010</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1016</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1022</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1024</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1026</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1028</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1030</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1032</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1034</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1036</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1038</v>
       </c>
@@ -18233,7 +18233,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1040</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1042</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1044</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1046</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1048</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1050</v>
       </c>
@@ -18305,7 +18305,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1052</v>
       </c>
@@ -18365,7 +18365,7 @@
         <v>bam</v>
       </c>
     </row>
-    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1062</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1064</v>
       </c>
@@ -18389,7 +18389,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1066</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1068</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1070</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1072</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1074</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1080</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1086</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1088</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1090</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1092</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1094</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1096</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1098</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1104</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1110</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1112</v>
       </c>
@@ -18701,7 +18701,7 @@
         <v>wed</v>
       </c>
     </row>
-    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1118</v>
       </c>
@@ -18713,7 +18713,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1120</v>
       </c>
@@ -18725,7 +18725,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1122</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1124</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1126</v>
       </c>
@@ -18761,7 +18761,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1128</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1130</v>
       </c>
@@ -18785,7 +18785,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1132</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1134</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1136</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1138</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1140</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1142</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1144</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1146</v>
       </c>
@@ -18881,7 +18881,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1148</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1166</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1178</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1194</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1198</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1202</v>
       </c>
@@ -19229,7 +19229,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1206</v>
       </c>
@@ -19253,7 +19253,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1210</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1214</v>
       </c>
@@ -19301,7 +19301,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1218</v>
       </c>
@@ -19325,7 +19325,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1222</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1226</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1230</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1234</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1238</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1274</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1302</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1308</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1316</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1328</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1334</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1338</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1342</v>
       </c>
@@ -20093,7 +20093,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1350</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1366</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1370</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1382</v>
       </c>
@@ -20357,7 +20357,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1394</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1400</v>
       </c>
@@ -20477,7 +20477,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1414</v>
       </c>
@@ -20645,7 +20645,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1442</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1448</v>
       </c>
@@ -20741,7 +20741,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1458</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1462</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1466</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1470</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>1488</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>1500</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>1506</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>1510</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1516</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>1520</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>1532</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1552</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1558</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>1562</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>1566</v>
       </c>
@@ -21485,7 +21485,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1582</v>
       </c>
@@ -21653,7 +21653,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1610</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1632</v>
       </c>
@@ -21821,7 +21821,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1638</v>
       </c>
@@ -21881,7 +21881,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1648</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1660</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>1664</v>
       </c>
@@ -22001,7 +22001,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>1668</v>
       </c>
@@ -22037,7 +22037,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1674</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>1676</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>1694</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1698</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>1710</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>1714</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>1720</v>
       </c>
@@ -22421,7 +22421,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>1738</v>
       </c>
@@ -22457,7 +22457,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>1744</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>1756</v>
       </c>
@@ -22565,7 +22565,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>1762</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>1766</v>
       </c>
@@ -22601,7 +22601,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>1768</v>
       </c>
@@ -22625,7 +22625,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>1772</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>1776</v>
       </c>
@@ -22673,7 +22673,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>1780</v>
       </c>
@@ -22757,7 +22757,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>1794</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>1798</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>1804</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>1808</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>1812</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>1816</v>
       </c>
@@ -23237,7 +23237,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1874</v>
       </c>
@@ -23261,7 +23261,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1878</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>1882</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>1886</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>1898</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>1904</v>
       </c>
@@ -23477,7 +23477,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>1914</v>
       </c>
@@ -24293,7 +24293,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>2050</v>
       </c>
@@ -24425,7 +24425,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>2072</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>2076</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>2080</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>2106</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>2160</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
         <v>2224</v>
       </c>
@@ -25469,7 +25469,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
         <v>2246</v>
       </c>
@@ -25493,7 +25493,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
         <v>2250</v>
       </c>
@@ -25637,7 +25637,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
         <v>2274</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>2304</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
         <v>2308</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>2312</v>
       </c>
@@ -25889,7 +25889,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>2316</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>2338</v>
       </c>
@@ -26285,7 +26285,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
         <v>2382</v>
       </c>
@@ -26345,7 +26345,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
         <v>2392</v>
       </c>
@@ -26381,7 +26381,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>2398</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>2402</v>
       </c>
@@ -26429,7 +26429,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>2406</v>
       </c>
@@ -26453,7 +26453,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>2410</v>
       </c>
@@ -26477,7 +26477,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>2414</v>
       </c>
@@ -26501,7 +26501,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
         <v>2418</v>
       </c>
@@ -26525,7 +26525,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
         <v>2422</v>
       </c>
@@ -26549,7 +26549,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
         <v>2426</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
         <v>2440</v>
       </c>
@@ -26657,7 +26657,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
         <v>2444</v>
       </c>
@@ -26681,7 +26681,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
         <v>2448</v>
       </c>
@@ -26837,7 +26837,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
         <v>2474</v>
       </c>
@@ -26861,7 +26861,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
         <v>2478</v>
       </c>
@@ -26885,7 +26885,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
         <v>2482</v>
       </c>
@@ -26897,7 +26897,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
         <v>2484</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
         <v>2508</v>
       </c>
@@ -27065,7 +27065,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
         <v>2512</v>
       </c>
@@ -27089,7 +27089,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
         <v>2516</v>
       </c>
@@ -27113,7 +27113,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
         <v>2520</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
         <v>2526</v>
       </c>
@@ -27173,7 +27173,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
         <v>2530</v>
       </c>
@@ -27245,7 +27245,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
         <v>2542</v>
       </c>
@@ -27269,7 +27269,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
         <v>2546</v>
       </c>
@@ -27293,7 +27293,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
         <v>2550</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
         <v>2570</v>
       </c>
@@ -27533,7 +27533,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
         <v>2590</v>
       </c>
@@ -27557,7 +27557,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
         <v>2594</v>
       </c>
@@ -27725,7 +27725,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
         <v>2622</v>
       </c>
@@ -27749,7 +27749,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
         <v>2626</v>
       </c>
@@ -27773,7 +27773,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1316" t="s">
         <v>2630</v>
       </c>
@@ -27797,7 +27797,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1318" t="s">
         <v>2634</v>
       </c>
@@ -27821,7 +27821,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
         <v>2638</v>
       </c>
@@ -27941,7 +27941,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
         <v>2658</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
         <v>2662</v>
       </c>
@@ -28001,7 +28001,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
         <v>2668</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
         <v>2674</v>
       </c>
@@ -28145,7 +28145,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
         <v>2692</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
         <v>2696</v>
       </c>
@@ -28193,7 +28193,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
         <v>2700</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
         <v>2704</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1355" t="s">
         <v>2708</v>
       </c>
@@ -28265,7 +28265,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
         <v>2712</v>
       </c>
@@ -28289,7 +28289,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1359" t="s">
         <v>2716</v>
       </c>
@@ -28313,7 +28313,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
         <v>2720</v>
       </c>
@@ -28445,7 +28445,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
         <v>2742</v>
       </c>
@@ -28805,7 +28805,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>2802</v>
       </c>
@@ -28829,7 +28829,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
         <v>2806</v>
       </c>
@@ -28865,7 +28865,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>2812</v>
       </c>
@@ -28901,7 +28901,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
         <v>2818</v>
       </c>
@@ -28973,7 +28973,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
         <v>2830</v>
       </c>
@@ -29009,7 +29009,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
         <v>2836</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
         <v>2840</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
         <v>2848</v>
       </c>
@@ -29153,7 +29153,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
         <v>2860</v>
       </c>
@@ -29177,7 +29177,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
         <v>2864</v>
       </c>
@@ -29297,7 +29297,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
         <v>2884</v>
       </c>
@@ -29321,7 +29321,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
         <v>2888</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
         <v>2892</v>
       </c>
@@ -29405,7 +29405,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="1452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1452" t="s">
         <v>2902</v>
       </c>
@@ -29693,7 +29693,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1476" t="s">
         <v>2950</v>
       </c>
@@ -29717,7 +29717,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1478" t="s">
         <v>2954</v>
       </c>
@@ -29741,7 +29741,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
         <v>2958</v>
       </c>
@@ -29765,7 +29765,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
         <v>2962</v>
       </c>
@@ -29789,7 +29789,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
         <v>2966</v>
       </c>
@@ -29861,7 +29861,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1490" t="s">
         <v>2978</v>
       </c>
@@ -29885,7 +29885,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
         <v>2982</v>
       </c>
@@ -30005,7 +30005,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
         <v>3002</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
         <v>3006</v>
       </c>
@@ -30173,7 +30173,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="1516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
         <v>3030</v>
       </c>
@@ -30401,7 +30401,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
         <v>3068</v>
       </c>
@@ -30449,7 +30449,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
         <v>3076</v>
       </c>
@@ -30485,7 +30485,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
         <v>3082</v>
       </c>
@@ -30509,7 +30509,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
         <v>3086</v>
       </c>
@@ -30533,7 +30533,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
         <v>3090</v>
       </c>
@@ -30557,7 +30557,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
         <v>3094</v>
       </c>
@@ -30653,7 +30653,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
         <v>3110</v>
       </c>
@@ -30701,7 +30701,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
         <v>3118</v>
       </c>
@@ -30725,7 +30725,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1562" t="s">
         <v>3122</v>
       </c>
@@ -30749,7 +30749,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
         <v>3126</v>
       </c>
@@ -30773,7 +30773,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
         <v>3130</v>
       </c>
@@ -30797,7 +30797,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
         <v>3134</v>
       </c>
@@ -30821,7 +30821,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
         <v>3138</v>
       </c>
@@ -30845,7 +30845,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1572" t="s">
         <v>3142</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1574" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1574" t="s">
         <v>3146</v>
       </c>
@@ -30893,7 +30893,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
         <v>3150</v>
       </c>
@@ -31073,7 +31073,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1591" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
         <v>3180</v>
       </c>
@@ -31097,7 +31097,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1593" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1593" t="s">
         <v>3184</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1595" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
         <v>3188</v>
       </c>
@@ -31145,7 +31145,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1597" t="s">
         <v>3192</v>
       </c>
@@ -31217,7 +31217,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
         <v>3204</v>
       </c>
@@ -31253,7 +31253,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1606" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1606" t="s">
         <v>3210</v>
       </c>
@@ -31325,7 +31325,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
         <v>3222</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1615" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
         <v>3228</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1619" t="s">
         <v>3236</v>
       </c>
@@ -31433,7 +31433,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
         <v>3240</v>
       </c>
@@ -31469,7 +31469,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1624" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1624" t="s">
         <v>3246</v>
       </c>
@@ -31553,7 +31553,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1631" t="s">
         <v>3260</v>
       </c>
@@ -31589,7 +31589,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
         <v>3266</v>
       </c>
@@ -31649,7 +31649,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
         <v>3276</v>
       </c>
@@ -31685,7 +31685,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
         <v>3282</v>
       </c>
@@ -31709,7 +31709,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
         <v>3286</v>
       </c>
@@ -31757,7 +31757,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
         <v>3294</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
         <v>3298</v>
       </c>
@@ -31805,7 +31805,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1652" t="s">
         <v>3302</v>
       </c>
@@ -31829,7 +31829,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
         <v>3306</v>
       </c>
@@ -31853,7 +31853,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
         <v>3310</v>
       </c>
@@ -31877,7 +31877,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1658" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
         <v>3314</v>
       </c>
@@ -31901,7 +31901,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
         <v>3318</v>
       </c>
@@ -31997,7 +31997,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
         <v>3334</v>
       </c>
@@ -32069,7 +32069,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1674" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
         <v>3346</v>
       </c>
@@ -32093,7 +32093,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
         <v>3350</v>
       </c>
@@ -32105,7 +32105,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
         <v>3352</v>
       </c>
@@ -32129,7 +32129,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1679" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
         <v>3356</v>
       </c>
@@ -32141,7 +32141,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
         <v>3358</v>
       </c>
@@ -32225,7 +32225,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1687" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
         <v>3372</v>
       </c>
@@ -32261,7 +32261,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1690" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
         <v>3378</v>
       </c>
@@ -32297,7 +32297,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
         <v>3384</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
         <v>3390</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1699" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
         <v>3396</v>
       </c>
@@ -32405,7 +32405,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1702" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
         <v>3402</v>
       </c>
@@ -32441,7 +32441,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
         <v>3408</v>
       </c>
@@ -32477,7 +32477,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
         <v>3414</v>
       </c>
@@ -32513,7 +32513,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1711" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
         <v>3420</v>
       </c>
@@ -32573,7 +32573,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
         <v>3430</v>
       </c>
@@ -32645,7 +32645,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
         <v>3442</v>
       </c>
@@ -33533,7 +33533,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>3590</v>
       </c>
@@ -33545,7 +33545,7 @@
         <v>dlg</v>
       </c>
     </row>
-    <row r="1797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>3592</v>
       </c>
@@ -33629,7 +33629,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>3606</v>
       </c>
@@ -33773,7 +33773,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
         <v>3630</v>
       </c>
@@ -33965,7 +33965,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1832" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
         <v>3662</v>
       </c>
@@ -34109,7 +34109,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1844" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
         <v>3686</v>
       </c>
@@ -34157,7 +34157,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1848" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1848" t="s">
         <v>3694</v>
       </c>
@@ -34193,7 +34193,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1851" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
         <v>3700</v>
       </c>
@@ -34217,7 +34217,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1853" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
         <v>3704</v>
       </c>
@@ -34253,7 +34253,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1856" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1856" t="s">
         <v>3710</v>
       </c>
@@ -34301,7 +34301,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1860" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
         <v>3718</v>
       </c>
@@ -34397,7 +34397,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1868" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1868" t="s">
         <v>3734</v>
       </c>
@@ -34421,7 +34421,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1870" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
         <v>3738</v>
       </c>
@@ -34517,7 +34517,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1878" t="s">
         <v>3754</v>
       </c>
@@ -34553,7 +34553,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1881" t="s">
         <v>3760</v>
       </c>
@@ -34577,7 +34577,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1883" t="s">
         <v>3764</v>
       </c>
@@ -34685,7 +34685,7 @@
         <v>baf</v>
       </c>
     </row>
-    <row r="1892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1892" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
         <v>3782</v>
       </c>
@@ -34721,7 +34721,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1895" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
         <v>3788</v>
       </c>
@@ -34889,7 +34889,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1909" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
         <v>3816</v>
       </c>
@@ -34913,7 +34913,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1911" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1911" t="s">
         <v>3820</v>
       </c>
@@ -35033,7 +35033,7 @@
         <v>wav</v>
       </c>
     </row>
-    <row r="1921" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1921" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1921" t="s">
         <v>3840</v>
       </c>
@@ -35117,7 +35117,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="1928" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1928" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1928" t="s">
         <v>3854</v>
       </c>
@@ -35133,7 +35133,7 @@
   <autoFilter ref="A1:C1928" xr:uid="{0FEDDF9F-E40A-41B5-B492-6A648CA15A8E}">
     <filterColumn colId="2">
       <filters>
-        <filter val="dlg"/>
+        <filter val="are"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/EE/rbg/referenceTable.xlsx
+++ b/EE/rbg/referenceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\rbg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B61C49F-6B4D-4586-92C6-73176E549127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B740F8-7D65-4C88-94D4-57D8E2D229C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="4830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="4844">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -14528,6 +14528,48 @@
   </si>
   <si>
     <t>xab102.tis</t>
+  </si>
+  <si>
+    <t>kent.cre</t>
+  </si>
+  <si>
+    <t>xac106.cre</t>
+  </si>
+  <si>
+    <t>xac10067.wav</t>
+  </si>
+  <si>
+    <t>xac10068.wav</t>
+  </si>
+  <si>
+    <t>xac10069.wav</t>
+  </si>
+  <si>
+    <t>xac10070.wav</t>
+  </si>
+  <si>
+    <t>xac10071.wav</t>
+  </si>
+  <si>
+    <t>xac10073.wav</t>
+  </si>
+  <si>
+    <t>xac117.baf</t>
+  </si>
+  <si>
+    <t>xac118.baf</t>
+  </si>
+  <si>
+    <t>xac119.baf</t>
+  </si>
+  <si>
+    <t>kent.dlg</t>
+  </si>
+  <si>
+    <t>xac106.dlg</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -14997,11 +15039,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C96" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C96" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C107" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C107" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F068CF39-B856-4518-B8CD-96B89FFFB427}" name="Old" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5468C45C-CF19-4F63-8928-9FCA0BE201E5}" name="New" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5468C45C-CF19-4F63-8928-9FCA0BE201E5}" name="Column1" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{BC7FF73E-5DD7-499B-A471-E9A141C8CB9D}" name="Type" dataDxfId="0">
       <calculatedColumnFormula>RIGHT(B2,3)</calculatedColumnFormula>
     </tableColumn>
@@ -15329,8 +15371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22271,7 +22313,7 @@
         <v>3529</v>
       </c>
       <c r="C578" s="1" t="str">
-        <f t="shared" ref="C578:C641" si="9">RIGHT(B578,3)</f>
+        <f t="shared" ref="C578:C614" si="9">RIGHT(B578,3)</f>
         <v>cre</v>
       </c>
     </row>
@@ -52783,10 +52825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52801,7 +52843,7 @@
         <v>4037</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4038</v>
+        <v>4843</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3854</v>
@@ -52881,22 +52923,22 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3863</v>
+        <v>4830</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3864</v>
+        <v>4831</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>wav</v>
+        <v>cre</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52905,10 +52947,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52917,10 +52959,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52929,10 +52971,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52941,10 +52983,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52953,10 +52995,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52965,10 +53007,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52977,10 +53019,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="C16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -52989,10 +53031,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53001,10 +53043,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53013,10 +53055,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53025,10 +53067,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53037,10 +53079,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="C21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53049,10 +53091,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53061,10 +53103,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="C23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53073,10 +53115,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="C24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53085,10 +53127,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="C25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53097,10 +53139,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="C26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53109,10 +53151,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="C27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53121,10 +53163,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="C28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53133,10 +53175,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="C29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53145,10 +53187,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53157,10 +53199,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53169,10 +53211,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53181,10 +53223,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53193,10 +53235,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53205,10 +53247,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53217,10 +53259,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53229,10 +53271,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="C37" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53241,10 +53283,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="C38" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53253,10 +53295,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="C39" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53265,10 +53307,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="C40" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53277,10 +53319,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="C41" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53289,10 +53331,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="C42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53301,10 +53343,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="C43" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53313,10 +53355,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="C44" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53325,10 +53367,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53337,10 +53379,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53349,10 +53391,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53361,10 +53403,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53373,10 +53415,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="C49" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53385,10 +53427,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="C50" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53397,10 +53439,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="C51" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53409,10 +53451,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>1684</v>
+        <v>3949</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C52" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53421,10 +53463,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="C53" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53433,10 +53475,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="C54" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53445,10 +53487,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>1678</v>
+        <v>1688</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="C55" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53457,10 +53499,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="C56" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53469,10 +53511,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>3956</v>
+        <v>1680</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="C57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53481,10 +53523,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="C58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53493,10 +53535,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="C59" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53505,10 +53547,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>3999</v>
+        <v>3960</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>4000</v>
+        <v>3961</v>
       </c>
       <c r="C60" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53517,10 +53559,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53529,10 +53571,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53541,10 +53583,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="C63" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53553,10 +53595,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="C64" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53565,10 +53607,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="C65" s="1" t="str">
         <f t="shared" si="0"/>
@@ -53577,10 +53619,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="C66" s="1" t="str">
         <f t="shared" ref="C66:C96" si="1">RIGHT(B66,3)</f>
@@ -53589,10 +53631,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="C67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53601,10 +53643,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="C68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53613,10 +53655,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="C69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53625,10 +53667,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="C70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53637,10 +53679,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="C71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53649,94 +53691,94 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>3962</v>
+        <v>4021</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3963</v>
+        <v>4022</v>
       </c>
       <c r="C72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>3964</v>
+        <v>1784</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3965</v>
+        <v>4832</v>
       </c>
       <c r="C73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>3966</v>
+        <v>1782</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3967</v>
+        <v>4833</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>3968</v>
+        <v>1788</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3969</v>
+        <v>4834</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>3970</v>
+        <v>1790</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3971</v>
+        <v>4835</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>3972</v>
+        <v>1780</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3973</v>
+        <v>4836</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>3974</v>
+        <v>1786</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3975</v>
+        <v>4837</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>baf</v>
+        <v>wav</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>4023</v>
+        <v>3962</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4024</v>
+        <v>3963</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53745,10 +53787,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>3422</v>
+        <v>3964</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4025</v>
+        <v>3965</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53757,10 +53799,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>4026</v>
+        <v>3966</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4027</v>
+        <v>3967</v>
       </c>
       <c r="C81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53769,10 +53811,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>3802</v>
+        <v>3968</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4028</v>
+        <v>3969</v>
       </c>
       <c r="C82" s="1" t="str">
         <f t="shared" si="1"/>
@@ -53781,169 +53823,301 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>3976</v>
+        <v>3970</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3977</v>
+        <v>3971</v>
       </c>
       <c r="C83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>3978</v>
+        <v>3972</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3979</v>
+        <v>3973</v>
       </c>
       <c r="C84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>3980</v>
+        <v>3974</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3981</v>
+        <v>3975</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3728</v>
+        <v>4023</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3982</v>
+        <v>4024</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>itm</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>4029</v>
+        <v>3422</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4030</v>
+        <v>4025</v>
       </c>
       <c r="C87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>4031</v>
+        <v>4026</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>4032</v>
+        <v>4027</v>
       </c>
       <c r="C88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>bmp</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>3983</v>
+        <v>3802</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3984</v>
+        <v>4028</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dlg</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>3985</v>
+        <v>2354</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3986</v>
+        <v>4838</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dlg</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>3987</v>
+        <v>3336</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3988</v>
+        <v>4839</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dlg</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>3989</v>
+        <v>3102</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3990</v>
+        <v>4840</v>
       </c>
       <c r="C92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dlg</v>
+        <v>baf</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>4033</v>
+        <v>3976</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>4034</v>
+        <v>3977</v>
       </c>
       <c r="C93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dlg</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>4035</v>
+        <v>3978</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>4036</v>
+        <v>3979</v>
       </c>
       <c r="C94" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>dlg</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>3991</v>
+        <v>3980</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3992</v>
+        <v>3981</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>bam</v>
+        <v>itm</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>3993</v>
+        <v>3728</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3994</v>
+        <v>3982</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="1"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" ref="C97:C107" si="2">RIGHT(B97,3)</f>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>4034</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>bam</v>
       </c>
     </row>

--- a/EE/rbg/referenceTable.xlsx
+++ b/EE/rbg/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\rbg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B740F8-7D65-4C88-94D4-57D8E2D229C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFEBF63-0AFC-426E-8465-AC7553F05659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -15371,8 +15371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38530,8 +38530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87FCDA0-E82A-4841-8615-972300ECBD0F}">
   <dimension ref="A1:C1928"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52827,7 +52827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/EE/rbg/referenceTable.xlsx
+++ b/EE/rbg/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\rbg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFEBF63-0AFC-426E-8465-AC7553F05659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176BB79E-E5DE-48F1-8A81-1A48274C1428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="4844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="4878">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -14570,6 +14570,108 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>bdbelt.cre</t>
+  </si>
+  <si>
+    <t>xac107.cre</t>
+  </si>
+  <si>
+    <t>bdeltan.cre</t>
+  </si>
+  <si>
+    <t>xac108.cre</t>
+  </si>
+  <si>
+    <t>bdentar.cre</t>
+  </si>
+  <si>
+    <t>xac109.cre</t>
+  </si>
+  <si>
+    <t>bdliia.cre</t>
+  </si>
+  <si>
+    <t>xac110.cre</t>
+  </si>
+  <si>
+    <t>bdfamari.cre</t>
+  </si>
+  <si>
+    <t>xac111.cre</t>
+  </si>
+  <si>
+    <t>xac10074.wav</t>
+  </si>
+  <si>
+    <t>xac10075.wav</t>
+  </si>
+  <si>
+    <t>xac10076.wav</t>
+  </si>
+  <si>
+    <t>xac10077.wav</t>
+  </si>
+  <si>
+    <t>bdliia.baf</t>
+  </si>
+  <si>
+    <t>xac133.baf</t>
+  </si>
+  <si>
+    <t>xac135.baf</t>
+  </si>
+  <si>
+    <t>bdfamari.baf</t>
+  </si>
+  <si>
+    <t>xac136.baf</t>
+  </si>
+  <si>
+    <t>xac137.baf</t>
+  </si>
+  <si>
+    <t>bdfigh37.baf</t>
+  </si>
+  <si>
+    <t>xac139.baf</t>
+  </si>
+  <si>
+    <t>xac107.itm</t>
+  </si>
+  <si>
+    <t>xac108.itm</t>
+  </si>
+  <si>
+    <t>bdbelt.dlg</t>
+  </si>
+  <si>
+    <t>xac107.dlg</t>
+  </si>
+  <si>
+    <t>bdeltan.dlg</t>
+  </si>
+  <si>
+    <t>xac108.dlg</t>
+  </si>
+  <si>
+    <t>bdentar.dlg</t>
+  </si>
+  <si>
+    <t>xac109.dlg</t>
+  </si>
+  <si>
+    <t>bdliia.dlg</t>
+  </si>
+  <si>
+    <t>xac110.dlg</t>
+  </si>
+  <si>
+    <t>bdfamari.dlg</t>
+  </si>
+  <si>
+    <t>xac111.dlg</t>
   </si>
 </sst>
 </file>
@@ -15039,8 +15141,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C107" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C107" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C128" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C128" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="cre"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
+    <sortCondition ref="A1:A128"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F068CF39-B856-4518-B8CD-96B89FFFB427}" name="Old" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{5468C45C-CF19-4F63-8928-9FCA0BE201E5}" name="Column1" dataDxfId="1"/>
@@ -15371,8 +15482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB79911A-7560-43EB-97A7-E09735CAF03B}">
   <dimension ref="A1:C1928"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52825,10 +52936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52849,451 +52960,451 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3855</v>
+        <v>4005</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3856</v>
+        <v>4006</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C65" si="0">RIGHT(B2,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B2,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3857</v>
+        <v>4007</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3858</v>
+        <v>4008</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B3,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3859</v>
+        <v>4009</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3860</v>
+        <v>4010</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B4,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3861</v>
+        <v>4015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3862</v>
+        <v>4016</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B5,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3995</v>
+        <v>4017</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3996</v>
+        <v>4018</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B6,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3997</v>
+        <v>4019</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3998</v>
+        <v>4020</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B7,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4830</v>
+        <v>4021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4831</v>
+        <v>4022</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B8,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3863</v>
+        <v>4011</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3864</v>
+        <v>4012</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B9,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3865</v>
+        <v>4013</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3866</v>
+        <v>4014</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>RIGHT(B10,3)</f>
         <v>wav</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3867</v>
+        <v>3997</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3868</v>
+        <v>3998</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B11,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3869</v>
+        <v>4035</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3870</v>
+        <v>4036</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B12,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3871</v>
+        <v>4026</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3872</v>
+        <v>4027</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B13,3)</f>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>RIGHT(B14,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>RIGHT(B15,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>RIGHT(B16,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>RIGHT(B17,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>RIGHT(B18,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>3873</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>3874</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C19" s="1" t="str">
+        <f>RIGHT(B19,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>3875</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>3876</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C20" s="1" t="str">
+        <f>RIGHT(B20,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>3877</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>3878</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>3879</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3880</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>3881</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3882</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3883</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3884</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3885</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3886</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>3887</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3888</v>
-      </c>
       <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B21,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>RIGHT(B22,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>RIGHT(B23,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>RIGHT(B24,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>RIGHT(B25,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>RIGHT(B26,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>RIGHT(B27,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>RIGHT(B28,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>RIGHT(B29,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>RIGHT(B30,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>RIGHT(B31,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>3889</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>3890</v>
       </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C32" s="1" t="str">
+        <f>RIGHT(B32,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>3891</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>3892</v>
       </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>3893</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3894</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C33" s="1" t="str">
+        <f>RIGHT(B33,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>3895</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>3896</v>
       </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C34" s="1" t="str">
+        <f>RIGHT(B34,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>3897</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>3898</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C35" s="1" t="str">
+        <f>RIGHT(B35,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>3899</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>3900</v>
       </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C36" s="1" t="str">
+        <f>RIGHT(B36,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>3901</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>3902</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C37" s="1" t="str">
+        <f>RIGHT(B37,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>3903</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>3904</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>3905</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3906</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>3907</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3908</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>3909</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3910</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>3911</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3912</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3913</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3914</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>3915</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3916</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3917</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3918</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3919</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3920</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>3921</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3922</v>
-      </c>
       <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B38,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3923</v>
       </c>
@@ -53301,11 +53412,11 @@
         <v>3924</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B39,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3925</v>
       </c>
@@ -53313,11 +53424,11 @@
         <v>3926</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B40,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3927</v>
       </c>
@@ -53325,11 +53436,11 @@
         <v>3928</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B41,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3929</v>
       </c>
@@ -53337,467 +53448,467 @@
         <v>3930</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B42,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>RIGHT(B43,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3937</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>RIGHT(B44,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>RIGHT(B45,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>RIGHT(B46,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>3943</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>RIGHT(B47,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>RIGHT(B48,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>3947</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>RIGHT(B49,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>RIGHT(B50,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>RIGHT(B51,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>RIGHT(B52,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>RIGHT(B53,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>RIGHT(B54,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>RIGHT(B55,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>3932</v>
       </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="C56" s="1" t="str">
+        <f>RIGHT(B56,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>3933</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>3934</v>
       </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>3935</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>3936</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>3937</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3938</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>3939</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3940</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>3941</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3942</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>3943</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3944</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>3945</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>3946</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>3947</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3948</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>3949</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3950</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3951</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3952</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3953</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3954</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>3955</v>
-      </c>
       <c r="C57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B57,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>3958</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>RIGHT(B58,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>RIGHT(B59,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>3956</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>3957</v>
       </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>3958</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>3959</v>
-      </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>3960</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>3961</v>
-      </c>
       <c r="C60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B60,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>RIGHT(B61,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>RIGHT(B62,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>3999</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>4000</v>
       </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>4001</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>4002</v>
-      </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>4003</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>4004</v>
-      </c>
       <c r="C63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B63,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>4005</v>
+        <v>3974</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4006</v>
+        <v>3975</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
+        <f>RIGHT(B64,3)</f>
+        <v>baf</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>4007</v>
+        <v>3859</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4008</v>
+        <v>3860</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B65,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>4009</v>
+        <v>3987</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4010</v>
+        <v>3988</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f t="shared" ref="C66:C96" si="1">RIGHT(B66,3)</f>
-        <v>wav</v>
+        <f>RIGHT(B66,3)</f>
+        <v>dlg</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>4011</v>
+        <v>4844</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4012</v>
+        <v>4845</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B67,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>4013</v>
+        <v>4868</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4014</v>
+        <v>4869</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B68,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>4015</v>
+        <v>3976</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4016</v>
+        <v>3977</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B69,3)</f>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>4017</v>
+        <v>4023</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4018</v>
+        <v>4024</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
+        <f>RIGHT(B70,3)</f>
+        <v>baf</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>4019</v>
+        <v>3995</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4020</v>
+        <v>3996</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B71,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>4021</v>
+        <v>4033</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4022</v>
+        <v>4034</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B72,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>1784</v>
+        <v>4290</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4832</v>
+        <v>4863</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
+        <f>RIGHT(B73,3)</f>
+        <v>baf</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>1782</v>
+        <v>4846</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4833</v>
+        <v>4847</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B74,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1788</v>
+        <v>4870</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4834</v>
+        <v>4871</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
+        <f>RIGHT(B75,3)</f>
+        <v>dlg</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1790</v>
+        <v>4848</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4835</v>
+        <v>4849</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B76,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1780</v>
+        <v>4872</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4836</v>
+        <v>4873</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B77,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1786</v>
+        <v>4861</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4837</v>
+        <v>4862</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>wav</v>
+        <f>RIGHT(B78,3)</f>
+        <v>baf</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>3962</v>
+        <v>4852</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3963</v>
+        <v>4853</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B79,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>3964</v>
+        <v>4876</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3965</v>
+        <v>4877</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B80,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>3966</v>
       </c>
@@ -53805,320 +53916,572 @@
         <v>3967</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B81,3)</f>
         <v>baf</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>3968</v>
+        <v>3970</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B82,3)</f>
         <v>baf</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>3970</v>
+        <v>4864</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3971</v>
+        <v>4865</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B83,3)</f>
         <v>baf</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>3972</v>
+        <v>3962</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3973</v>
+        <v>3963</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B84,3)</f>
         <v>baf</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>3974</v>
+        <v>3983</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3975</v>
+        <v>3984</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B85,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>RIGHT(B86,3)</f>
         <v>baf</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>4023</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>4024</v>
-      </c>
-      <c r="C86" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>3422</v>
+        <v>4858</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4025</v>
+        <v>4859</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B87,3)</f>
         <v>baf</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>4026</v>
+        <v>4850</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>4027</v>
+        <v>4851</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B88,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>4875</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>RIGHT(B89,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4860</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>RIGHT(B90,3)</f>
         <v>baf</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>3802</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>4028</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4838</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>3336</v>
+        <v>3972</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>4839</v>
+        <v>3973</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B91,3)</f>
         <v>baf</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>3102</v>
+        <v>3861</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>4840</v>
+        <v>3862</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B92,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>3976</v>
+        <v>3989</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3977</v>
+        <v>3990</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <f>RIGHT(B93,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>3978</v>
+        <v>3980</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3979</v>
+        <v>3981</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B94,3)</f>
         <v>itm</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>3980</v>
+        <v>3857</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3981</v>
+        <v>3858</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(B95,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>3985</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3986</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>RIGHT(B96,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>RIGHT(B97,3)</f>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4854</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>RIGHT(B98,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4855</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>RIGHT(B99,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>3978</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>RIGHT(B100,3)</f>
         <v>itm</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>4856</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>RIGHT(B101,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4857</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>RIGHT(B102,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>RIGHT(B103,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>RIGHT(B104,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>RIGHT(B105,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>RIGHT(B106,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>RIGHT(B107,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4836</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>RIGHT(B108,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>4833</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>RIGHT(B109,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>4832</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>RIGHT(B110,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>4837</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>RIGHT(B111,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>RIGHT(B112,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>4835</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>RIGHT(B113,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>RIGHT(B114,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>RIGHT(B115,3)</f>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>RIGHT(B116,3)</f>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>RIGHT(B117,3)</f>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>RIGHT(B118,3)</f>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>4838</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>RIGHT(B119,3)</f>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>4831</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>RIGHT(B120,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>RIGHT(B121,3)</f>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>4866</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f>RIGHT(B122,3)</f>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>4840</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>RIGHT(B123,3)</f>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>RIGHT(B124,3)</f>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>4025</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>RIGHT(B125,3)</f>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>4867</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f>RIGHT(B126,3)</f>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>3728</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>3982</v>
       </c>
-      <c r="C96" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="C127" s="1" t="str">
+        <f>RIGHT(B127,3)</f>
         <v>itm</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>4029</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>4030</v>
-      </c>
-      <c r="C97" s="1" t="str">
-        <f t="shared" ref="C97:C107" si="2">RIGHT(B97,3)</f>
-        <v>bmp</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>4031</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4032</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>bmp</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>3983</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>3984</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>3985</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>3986</v>
-      </c>
-      <c r="C100" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>3987</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>3988</v>
-      </c>
-      <c r="C101" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>3989</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>3990</v>
-      </c>
-      <c r="C102" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>4033</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>4034</v>
-      </c>
-      <c r="C103" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>4035</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>4036</v>
-      </c>
-      <c r="C104" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>4841</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>4842</v>
-      </c>
-      <c r="C105" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>3991</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>3992</v>
-      </c>
-      <c r="C106" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>bam</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>3993</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>3994</v>
-      </c>
-      <c r="C107" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>bam</v>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f>RIGHT(B128,3)</f>
+        <v>baf</v>
       </c>
     </row>
   </sheetData>

--- a/EE/rbg/referenceTable.xlsx
+++ b/EE/rbg/referenceTable.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\rbg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176BB79E-E5DE-48F1-8A81-1A48274C1428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0EECEE-DD6E-4973-89C4-117CDDC5687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
     <sheet name="Block B" sheetId="6" r:id="rId2"/>
     <sheet name="Block C" sheetId="2" r:id="rId3"/>
+    <sheet name="Block D" sheetId="7" r:id="rId4"/>
+    <sheet name="Block E" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Block D'!$A$1:$C$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Block E'!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="4878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="5206">
   <si>
     <t>aasim.cre</t>
   </si>
@@ -14575,69 +14581,27 @@
     <t>bdbelt.cre</t>
   </si>
   <si>
-    <t>xac107.cre</t>
-  </si>
-  <si>
     <t>bdeltan.cre</t>
   </si>
   <si>
-    <t>xac108.cre</t>
-  </si>
-  <si>
     <t>bdentar.cre</t>
   </si>
   <si>
-    <t>xac109.cre</t>
-  </si>
-  <si>
     <t>bdliia.cre</t>
   </si>
   <si>
-    <t>xac110.cre</t>
-  </si>
-  <si>
     <t>bdfamari.cre</t>
   </si>
   <si>
-    <t>xac111.cre</t>
-  </si>
-  <si>
-    <t>xac10074.wav</t>
-  </si>
-  <si>
-    <t>xac10075.wav</t>
-  </si>
-  <si>
-    <t>xac10076.wav</t>
-  </si>
-  <si>
-    <t>xac10077.wav</t>
-  </si>
-  <si>
     <t>bdliia.baf</t>
   </si>
   <si>
-    <t>xac133.baf</t>
-  </si>
-  <si>
-    <t>xac135.baf</t>
-  </si>
-  <si>
     <t>bdfamari.baf</t>
   </si>
   <si>
-    <t>xac136.baf</t>
-  </si>
-  <si>
-    <t>xac137.baf</t>
-  </si>
-  <si>
     <t>bdfigh37.baf</t>
   </si>
   <si>
-    <t>xac139.baf</t>
-  </si>
-  <si>
     <t>xac107.itm</t>
   </si>
   <si>
@@ -14647,38 +14611,1064 @@
     <t>bdbelt.dlg</t>
   </si>
   <si>
-    <t>xac107.dlg</t>
-  </si>
-  <si>
     <t>bdeltan.dlg</t>
   </si>
   <si>
-    <t>xac108.dlg</t>
-  </si>
-  <si>
     <t>bdentar.dlg</t>
   </si>
   <si>
-    <t>xac109.dlg</t>
-  </si>
-  <si>
     <t>bdliia.dlg</t>
   </si>
   <si>
-    <t>xac110.dlg</t>
-  </si>
-  <si>
     <t>bdfamari.dlg</t>
   </si>
   <si>
-    <t>xac111.dlg</t>
+    <t>xad100.cre</t>
+  </si>
+  <si>
+    <t>xad101.cre</t>
+  </si>
+  <si>
+    <t>xad102.cre</t>
+  </si>
+  <si>
+    <t>xad103.cre</t>
+  </si>
+  <si>
+    <t>bdimoen.cre</t>
+  </si>
+  <si>
+    <t>xad104.cre</t>
+  </si>
+  <si>
+    <t>bdtiax.cre</t>
+  </si>
+  <si>
+    <t>xad105.cre</t>
+  </si>
+  <si>
+    <t>bdschael.cre</t>
+  </si>
+  <si>
+    <t>xad106.cre</t>
+  </si>
+  <si>
+    <t>bdfritz.cre</t>
+  </si>
+  <si>
+    <t>xad107.cre</t>
+  </si>
+  <si>
+    <t>bdjenks.cre</t>
+  </si>
+  <si>
+    <t>xad108.cre</t>
+  </si>
+  <si>
+    <t>bdffsit1.cre</t>
+  </si>
+  <si>
+    <t>xad109.cre</t>
+  </si>
+  <si>
+    <t>bdsleep1.cre</t>
+  </si>
+  <si>
+    <t>bdsleep3.cre</t>
+  </si>
+  <si>
+    <t>xad113.cre</t>
+  </si>
+  <si>
+    <t>bdrefgf2.cre</t>
+  </si>
+  <si>
+    <t>xad114.cre</t>
+  </si>
+  <si>
+    <t>bdrefgf4.cre</t>
+  </si>
+  <si>
+    <t>xad115.cre</t>
+  </si>
+  <si>
+    <t>bdsitm01.cre</t>
+  </si>
+  <si>
+    <t>xad116.cre</t>
+  </si>
+  <si>
+    <t>bdrefuge.cre</t>
+  </si>
+  <si>
+    <t>xad117.cre</t>
+  </si>
+  <si>
+    <t>bdffgirl.cre</t>
+  </si>
+  <si>
+    <t>xad118.cre</t>
+  </si>
+  <si>
+    <t>bdrefgm4.cre</t>
+  </si>
+  <si>
+    <t>bdrefug1.cre</t>
+  </si>
+  <si>
+    <t>bdrefgm6.cre</t>
+  </si>
+  <si>
+    <t>bdthug07.cre</t>
+  </si>
+  <si>
+    <t>xad133.cre</t>
+  </si>
+  <si>
+    <t>bdrefgm3.cre</t>
+  </si>
+  <si>
+    <t>bdrefgf6.cre</t>
+  </si>
+  <si>
+    <t>bdsail01.cre</t>
+  </si>
+  <si>
+    <t>bdsail04.cre</t>
+  </si>
+  <si>
+    <t>xad150.cre</t>
+  </si>
+  <si>
+    <t>bdrat.cre</t>
+  </si>
+  <si>
+    <t>xad153.cre</t>
+  </si>
+  <si>
+    <t>bd0103.are</t>
+  </si>
+  <si>
+    <t>xad100.are</t>
+  </si>
+  <si>
+    <t>bd0104.are</t>
+  </si>
+  <si>
+    <t>xad101.are</t>
+  </si>
+  <si>
+    <t>xad10000.wav</t>
+  </si>
+  <si>
+    <t>xad10001.wav</t>
+  </si>
+  <si>
+    <t>xad10002.wav</t>
+  </si>
+  <si>
+    <t>xad10003.wav</t>
+  </si>
+  <si>
+    <t>xad10004.wav</t>
+  </si>
+  <si>
+    <t>ambd0104.wav</t>
+  </si>
+  <si>
+    <t>xad10005.wav</t>
+  </si>
+  <si>
+    <t>xad10006.wav</t>
+  </si>
+  <si>
+    <t>imoen09.wav</t>
+  </si>
+  <si>
+    <t>xad10015.wav</t>
+  </si>
+  <si>
+    <t>imoen19.wav</t>
+  </si>
+  <si>
+    <t>xad10014.wav</t>
+  </si>
+  <si>
+    <t>imoen17.wav</t>
+  </si>
+  <si>
+    <t>xad10013.wav</t>
+  </si>
+  <si>
+    <t>imoen10.wav</t>
+  </si>
+  <si>
+    <t>imoen27.wav</t>
+  </si>
+  <si>
+    <t>imoen25.wav</t>
+  </si>
+  <si>
+    <t>imoen11.wav</t>
+  </si>
+  <si>
+    <t>xad10016.wav</t>
+  </si>
+  <si>
+    <t>imoen05.wav</t>
+  </si>
+  <si>
+    <t>xad10017.wav</t>
+  </si>
+  <si>
+    <t>imoen18.wav</t>
+  </si>
+  <si>
+    <t>xad10018.wav</t>
+  </si>
+  <si>
+    <t>imoen12.wav</t>
+  </si>
+  <si>
+    <t>xad10019.wav</t>
+  </si>
+  <si>
+    <t>imoen13.wav</t>
+  </si>
+  <si>
+    <t>xad10020.wav</t>
+  </si>
+  <si>
+    <t>imoen02.wav</t>
+  </si>
+  <si>
+    <t>xad10021.wav</t>
+  </si>
+  <si>
+    <t>imoen26.wav</t>
+  </si>
+  <si>
+    <t>xad10023.wav</t>
+  </si>
+  <si>
+    <t>imoen03.wav</t>
+  </si>
+  <si>
+    <t>xad10024.wav</t>
+  </si>
+  <si>
+    <t>imoen04.wav</t>
+  </si>
+  <si>
+    <t>imoen06.wav</t>
+  </si>
+  <si>
+    <t>xad10026.wav</t>
+  </si>
+  <si>
+    <t>imoen24.wav</t>
+  </si>
+  <si>
+    <t>xad10027.wav</t>
+  </si>
+  <si>
+    <t>imoen07.wav</t>
+  </si>
+  <si>
+    <t>xad10029.wav</t>
+  </si>
+  <si>
+    <t>imoen08.wav</t>
+  </si>
+  <si>
+    <t>xad10030.wav</t>
+  </si>
+  <si>
+    <t>imoen28.wav</t>
+  </si>
+  <si>
+    <t>imoen30.wav</t>
+  </si>
+  <si>
+    <t>xad10033.wav</t>
+  </si>
+  <si>
+    <t>imoen14.wav</t>
+  </si>
+  <si>
+    <t>xad10034.wav</t>
+  </si>
+  <si>
+    <t>tiaxx01.wav</t>
+  </si>
+  <si>
+    <t>tiaxx02.wav</t>
+  </si>
+  <si>
+    <t>xad10036.wav</t>
+  </si>
+  <si>
+    <t>tiaxx04.wav</t>
+  </si>
+  <si>
+    <t>xad10037.wav</t>
+  </si>
+  <si>
+    <t>tiaxx05.wav</t>
+  </si>
+  <si>
+    <t>xad10038.wav</t>
+  </si>
+  <si>
+    <t>tiaxx06.wav</t>
+  </si>
+  <si>
+    <t>xad10039.wav</t>
+  </si>
+  <si>
+    <t>tiaxx07.wav</t>
+  </si>
+  <si>
+    <t>xad10040.wav</t>
+  </si>
+  <si>
+    <t>tiaxx08.wav</t>
+  </si>
+  <si>
+    <t>xad10041.wav</t>
+  </si>
+  <si>
+    <t>tiaxx09.wav</t>
+  </si>
+  <si>
+    <t>xad10042.wav</t>
+  </si>
+  <si>
+    <t>tiaxx10.wav</t>
+  </si>
+  <si>
+    <t>xad10043.wav</t>
+  </si>
+  <si>
+    <t>tiaxx03.wav</t>
+  </si>
+  <si>
+    <t>xad10044.wav</t>
+  </si>
+  <si>
+    <t>tiaxx21.wav</t>
+  </si>
+  <si>
+    <t>xad10045.wav</t>
+  </si>
+  <si>
+    <t>tiaxx38.wav</t>
+  </si>
+  <si>
+    <t>xad10046.wav</t>
+  </si>
+  <si>
+    <t>tiaxx39.wav</t>
+  </si>
+  <si>
+    <t>xad10047.wav</t>
+  </si>
+  <si>
+    <t>tiaxx11.wav</t>
+  </si>
+  <si>
+    <t>xad10048.wav</t>
+  </si>
+  <si>
+    <t>tiaxx12.wav</t>
+  </si>
+  <si>
+    <t>xad10049.wav</t>
+  </si>
+  <si>
+    <t>tiaxx13.wav</t>
+  </si>
+  <si>
+    <t>xad10050.wav</t>
+  </si>
+  <si>
+    <t>tiaxx14.wav</t>
+  </si>
+  <si>
+    <t>xad10051.wav</t>
+  </si>
+  <si>
+    <t>tiaxx15.wav</t>
+  </si>
+  <si>
+    <t>xad10052.wav</t>
+  </si>
+  <si>
+    <t>tiaxx16.wav</t>
+  </si>
+  <si>
+    <t>xad10053.wav</t>
+  </si>
+  <si>
+    <t>tiaxx17.wav</t>
+  </si>
+  <si>
+    <t>xad10054.wav</t>
+  </si>
+  <si>
+    <t>tiaxx18.wav</t>
+  </si>
+  <si>
+    <t>xad10055.wav</t>
+  </si>
+  <si>
+    <t>tiaxx19.wav</t>
+  </si>
+  <si>
+    <t>xad10056.wav</t>
+  </si>
+  <si>
+    <t>tiaxx20.wav</t>
+  </si>
+  <si>
+    <t>xad10057.wav</t>
+  </si>
+  <si>
+    <t>tiaxx22.wav</t>
+  </si>
+  <si>
+    <t>xad10059.wav</t>
+  </si>
+  <si>
+    <t>tiaxx27.wav</t>
+  </si>
+  <si>
+    <t>xad10060.wav</t>
+  </si>
+  <si>
+    <t>tiaxx28.wav</t>
+  </si>
+  <si>
+    <t>tiaxx29.wav</t>
+  </si>
+  <si>
+    <t>xad10062.wav</t>
+  </si>
+  <si>
+    <t>tiaxx30.wav</t>
+  </si>
+  <si>
+    <t>xad10063.wav</t>
+  </si>
+  <si>
+    <t>tiaxx31.wav</t>
+  </si>
+  <si>
+    <t>xad10064.wav</t>
+  </si>
+  <si>
+    <t>tiaxx35.wav</t>
+  </si>
+  <si>
+    <t>xad10065.wav</t>
+  </si>
+  <si>
+    <t>tiaxx23.wav</t>
+  </si>
+  <si>
+    <t>xad10067.wav</t>
+  </si>
+  <si>
+    <t>tiaxx36.wav</t>
+  </si>
+  <si>
+    <t>xad10068.wav</t>
+  </si>
+  <si>
+    <t>tiaxx37.wav</t>
+  </si>
+  <si>
+    <t>tiaxx24.wav</t>
+  </si>
+  <si>
+    <t>xad10070.wav</t>
+  </si>
+  <si>
+    <t>tiaxx40.wav</t>
+  </si>
+  <si>
+    <t>xad10071.wav</t>
+  </si>
+  <si>
+    <t>tiaxx41.wav</t>
+  </si>
+  <si>
+    <t>xad10072.wav</t>
+  </si>
+  <si>
+    <t>tiaxx32.wav</t>
+  </si>
+  <si>
+    <t>xad10073.wav</t>
+  </si>
+  <si>
+    <t>tiaxx33.wav</t>
+  </si>
+  <si>
+    <t>xad10074.wav</t>
+  </si>
+  <si>
+    <t>tiaxx34.wav</t>
+  </si>
+  <si>
+    <t>xad10075.wav</t>
+  </si>
+  <si>
+    <t>tiaxx25.wav</t>
+  </si>
+  <si>
+    <t>xad10076.wav</t>
+  </si>
+  <si>
+    <t>tiaxx26.wav</t>
+  </si>
+  <si>
+    <t>xad10077.wav</t>
+  </si>
+  <si>
+    <t>xad10078.wav</t>
+  </si>
+  <si>
+    <t>xad10079.wav</t>
+  </si>
+  <si>
+    <t>xad10080.wav</t>
+  </si>
+  <si>
+    <t>xad10081.wav</t>
+  </si>
+  <si>
+    <t>xad10082.wav</t>
+  </si>
+  <si>
+    <t>xad10083.wav</t>
+  </si>
+  <si>
+    <t>xad10084.wav</t>
+  </si>
+  <si>
+    <t>xad10085.wav</t>
+  </si>
+  <si>
+    <t>xad10086.wav</t>
+  </si>
+  <si>
+    <t>xad10087.wav</t>
+  </si>
+  <si>
+    <t>xad10091.wav</t>
+  </si>
+  <si>
+    <t>xad10093.wav</t>
+  </si>
+  <si>
+    <t>xad10094.wav</t>
+  </si>
+  <si>
+    <t>xad10096.wav</t>
+  </si>
+  <si>
+    <t>bd68984.wav</t>
+  </si>
+  <si>
+    <t>xad10099.wav</t>
+  </si>
+  <si>
+    <t>bd68985.wav</t>
+  </si>
+  <si>
+    <t>bd68986.wav</t>
+  </si>
+  <si>
+    <t>bd68981.wav</t>
+  </si>
+  <si>
+    <t>bd68982.wav</t>
+  </si>
+  <si>
+    <t>bd68983.wav</t>
+  </si>
+  <si>
+    <t>xad10108.wav</t>
+  </si>
+  <si>
+    <t>xad10109.wav</t>
+  </si>
+  <si>
+    <t>xad10110.wav</t>
+  </si>
+  <si>
+    <t>ggmal03.wav</t>
+  </si>
+  <si>
+    <t>ggmal04.wav</t>
+  </si>
+  <si>
+    <t>ggmal01.wav</t>
+  </si>
+  <si>
+    <t>ggmal02.wav</t>
+  </si>
+  <si>
+    <t>xad10125.wav</t>
+  </si>
+  <si>
+    <t>malsal05.wav</t>
+  </si>
+  <si>
+    <t>malsal06.wav</t>
+  </si>
+  <si>
+    <t>malsal01.wav</t>
+  </si>
+  <si>
+    <t>malsal02.wav</t>
+  </si>
+  <si>
+    <t>xad10135.wav</t>
+  </si>
+  <si>
+    <t>malsal03.wav</t>
+  </si>
+  <si>
+    <t>xad10136.wav</t>
+  </si>
+  <si>
+    <t>xad101.baf</t>
+  </si>
+  <si>
+    <t>xad102.baf</t>
+  </si>
+  <si>
+    <t>xad112.baf</t>
+  </si>
+  <si>
+    <t>xad114.baf</t>
+  </si>
+  <si>
+    <t>bd0103.baf</t>
+  </si>
+  <si>
+    <t>xad100.baf</t>
+  </si>
+  <si>
+    <t>bdpris12.baf</t>
+  </si>
+  <si>
+    <t>xad115.baf</t>
+  </si>
+  <si>
+    <t>randwalk.baf</t>
+  </si>
+  <si>
+    <t>bdpris08.baf</t>
+  </si>
+  <si>
+    <t>bd0104.baf</t>
+  </si>
+  <si>
+    <t>bdimoen.baf</t>
+  </si>
+  <si>
+    <t>xad118.baf</t>
+  </si>
+  <si>
+    <t>bdtiax.baf</t>
+  </si>
+  <si>
+    <t>xad119.baf</t>
+  </si>
+  <si>
+    <t>xad120.baf</t>
+  </si>
+  <si>
+    <t>xad121.baf</t>
+  </si>
+  <si>
+    <t>bdschael.baf</t>
+  </si>
+  <si>
+    <t>xad122.baf</t>
+  </si>
+  <si>
+    <t>bdfritz.baf</t>
+  </si>
+  <si>
+    <t>xad125.baf</t>
+  </si>
+  <si>
+    <t>xad135.baf</t>
+  </si>
+  <si>
+    <t>bdsailor.baf</t>
+  </si>
+  <si>
+    <t>xad151.baf</t>
+  </si>
+  <si>
+    <t>bdimoenm.bmp</t>
+  </si>
+  <si>
+    <t>bdimoenl.bmp</t>
+  </si>
+  <si>
+    <t>tiaxs.bmp</t>
+  </si>
+  <si>
+    <t>xad110.bmp</t>
+  </si>
+  <si>
+    <t>tiaxl.bmp</t>
+  </si>
+  <si>
+    <t>xad111.bmp</t>
+  </si>
+  <si>
+    <t>schaels.bmp</t>
+  </si>
+  <si>
+    <t>xad112.bmp</t>
+  </si>
+  <si>
+    <t>schaelm.bmp</t>
+  </si>
+  <si>
+    <t>xad113.bmp</t>
+  </si>
+  <si>
+    <t>xad100.dlg</t>
+  </si>
+  <si>
+    <t>xad101.dlg</t>
+  </si>
+  <si>
+    <t>xad102.dlg</t>
+  </si>
+  <si>
+    <t>xad103.dlg</t>
+  </si>
+  <si>
+    <t>bdpool07.dlg</t>
+  </si>
+  <si>
+    <t>xad104.dlg</t>
+  </si>
+  <si>
+    <t>bdpool08.dlg</t>
+  </si>
+  <si>
+    <t>bdimoen.dlg</t>
+  </si>
+  <si>
+    <t>bdtiax.dlg</t>
+  </si>
+  <si>
+    <t>xad143.dlg</t>
+  </si>
+  <si>
+    <t>bdschael.dlg</t>
+  </si>
+  <si>
+    <t>xad144.dlg</t>
+  </si>
+  <si>
+    <t>bdfritz.dlg</t>
+  </si>
+  <si>
+    <t>xad145.dlg</t>
+  </si>
+  <si>
+    <t>bdjenks.dlg</t>
+  </si>
+  <si>
+    <t>xad146.dlg</t>
+  </si>
+  <si>
+    <t>bdfistcc.dlg</t>
+  </si>
+  <si>
+    <t>xad147.dlg</t>
+  </si>
+  <si>
+    <t>xad100.itm</t>
+  </si>
+  <si>
+    <t>bdchan05.itm</t>
+  </si>
+  <si>
+    <t>xad102.itm</t>
+  </si>
+  <si>
+    <t>bdbow06.itm</t>
+  </si>
+  <si>
+    <t>xad104.itm</t>
+  </si>
+  <si>
+    <t>bd0103.wed</t>
+  </si>
+  <si>
+    <t>xad100.wed</t>
+  </si>
+  <si>
+    <t>bd0104.wed</t>
+  </si>
+  <si>
+    <t>xad101.wed</t>
+  </si>
+  <si>
+    <t>bd0103.tis</t>
+  </si>
+  <si>
+    <t>xad100.tis</t>
+  </si>
+  <si>
+    <t>bd0104.tis</t>
+  </si>
+  <si>
+    <t>xad101.tis</t>
+  </si>
+  <si>
+    <t>cbdbow06.bam</t>
+  </si>
+  <si>
+    <t>xad103.bam</t>
+  </si>
+  <si>
+    <t>ibdbow06.bam</t>
+  </si>
+  <si>
+    <t>xad102.bam</t>
+  </si>
+  <si>
+    <t>cbdchn05.bam</t>
+  </si>
+  <si>
+    <t>xad101.bam</t>
+  </si>
+  <si>
+    <t>ibdchn05.bam</t>
+  </si>
+  <si>
+    <t>xad100.bam</t>
+  </si>
+  <si>
+    <t>ar1906.are</t>
+  </si>
+  <si>
+    <t>xae100.are</t>
+  </si>
+  <si>
+    <t>ar6001.are</t>
+  </si>
+  <si>
+    <t>xae101.are</t>
+  </si>
+  <si>
+    <t>ar1902.wed</t>
+  </si>
+  <si>
+    <t>xae100.wed</t>
+  </si>
+  <si>
+    <t>ar6000.wed</t>
+  </si>
+  <si>
+    <t>xae101.wed</t>
+  </si>
+  <si>
+    <t>ar6000.tis</t>
+  </si>
+  <si>
+    <t>xae101.tis</t>
+  </si>
+  <si>
+    <t>ar1902.tis</t>
+  </si>
+  <si>
+    <t>xae100.tis</t>
+  </si>
+  <si>
+    <t>xad110.cre</t>
+  </si>
+  <si>
+    <t>xad119.cre</t>
+  </si>
+  <si>
+    <t>xad121.cre</t>
+  </si>
+  <si>
+    <t>xad126.cre</t>
+  </si>
+  <si>
+    <t>xad129.cre</t>
+  </si>
+  <si>
+    <t>xad134.cre</t>
+  </si>
+  <si>
+    <t>xad144.cre</t>
+  </si>
+  <si>
+    <t>xad147.cre</t>
+  </si>
+  <si>
+    <t>xad151.cre</t>
+  </si>
+  <si>
+    <t>xad154.cre</t>
+  </si>
+  <si>
+    <t>xad10007.wav</t>
+  </si>
+  <si>
+    <t>xad10008.wav</t>
+  </si>
+  <si>
+    <t>xad10009.wav</t>
+  </si>
+  <si>
+    <t>xad10022.wav</t>
+  </si>
+  <si>
+    <t>xad10028.wav</t>
+  </si>
+  <si>
+    <t>xad10032.wav</t>
+  </si>
+  <si>
+    <t>xad10058.wav</t>
+  </si>
+  <si>
+    <t>xad10066.wav</t>
+  </si>
+  <si>
+    <t>xad10092.wav</t>
+  </si>
+  <si>
+    <t>xad10097.wav</t>
+  </si>
+  <si>
+    <t>xad10098.wav</t>
+  </si>
+  <si>
+    <t>xad10102.wav</t>
+  </si>
+  <si>
+    <t>xad10103.wav</t>
+  </si>
+  <si>
+    <t>xad10104.wav</t>
+  </si>
+  <si>
+    <t>xad10111.wav</t>
+  </si>
+  <si>
+    <t>xad10112.wav</t>
+  </si>
+  <si>
+    <t>xad10113.wav</t>
+  </si>
+  <si>
+    <t>xad10126.wav</t>
+  </si>
+  <si>
+    <t>xad10127.wav</t>
+  </si>
+  <si>
+    <t>xad10128.wav</t>
+  </si>
+  <si>
+    <t>xad10137.wav</t>
+  </si>
+  <si>
+    <t>xad10138.wav</t>
+  </si>
+  <si>
+    <t>xad10139.wav</t>
+  </si>
+  <si>
+    <t>xad10145.wav</t>
+  </si>
+  <si>
+    <t>xad10146.wav</t>
+  </si>
+  <si>
+    <t>xad123.baf</t>
+  </si>
+  <si>
+    <t>xad124.baf</t>
+  </si>
+  <si>
+    <t>xad128.baf</t>
+  </si>
+  <si>
+    <t>xad138.baf</t>
+  </si>
+  <si>
+    <t>xad154.baf</t>
+  </si>
+  <si>
+    <t>xad158.baf</t>
+  </si>
+  <si>
+    <t>xad159.baf</t>
+  </si>
+  <si>
+    <t>xad114.bmp</t>
+  </si>
+  <si>
+    <t>xad115.bmp</t>
+  </si>
+  <si>
+    <t>xad105.dlg</t>
+  </si>
+  <si>
+    <t>xad108.dlg</t>
+  </si>
+  <si>
+    <t>xad148.dlg</t>
+  </si>
+  <si>
+    <t>xad101.itm</t>
+  </si>
+  <si>
+    <t>xad105.itm</t>
+  </si>
+  <si>
+    <t>xad109.itm</t>
+  </si>
+  <si>
+    <t>xac111.baf</t>
+  </si>
+  <si>
+    <t>xac112.baf</t>
+  </si>
+  <si>
+    <t>xac116.baf</t>
+  </si>
+  <si>
+    <t>xac121.baf</t>
+  </si>
+  <si>
+    <t>xac105.itm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14687,6 +15677,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
@@ -14708,7 +15706,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -14716,13 +15714,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15142,13 +16155,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}" name="Table1" displayName="Table1" ref="A1:C128" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C128" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="cre"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C128" xr:uid="{BA889CA5-A0BE-48A9-AF4B-FA6F8BC9388F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C128">
     <sortCondition ref="A1:A128"/>
   </sortState>
@@ -38642,7 +39649,7 @@
   <dimension ref="A1:C1928"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52938,8 +53945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB835E14-5A69-4171-BEB0-A92EAC97E39C}">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52960,451 +53967,451 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4005</v>
+        <v>3855</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4006</v>
+        <v>3856</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>RIGHT(B2,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C2:C33" si="0">RIGHT(B2,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4007</v>
+        <v>3857</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4008</v>
+        <v>3858</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>RIGHT(B3,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4009</v>
+        <v>3859</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4010</v>
+        <v>3860</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>RIGHT(B4,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4015</v>
+        <v>3861</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4016</v>
+        <v>3862</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>RIGHT(B5,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4017</v>
+        <v>3997</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4018</v>
+        <v>3996</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>RIGHT(B6,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4019</v>
+        <v>4830</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4020</v>
+        <v>3998</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>RIGHT(B7,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4021</v>
+        <v>4848</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4022</v>
+        <v>4831</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>RIGHT(B8,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4011</v>
+        <v>3863</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4012</v>
+        <v>3864</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>RIGHT(B9,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4013</v>
+        <v>3865</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4014</v>
+        <v>3866</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>RIGHT(B10,3)</f>
+        <f t="shared" si="0"/>
         <v>wav</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3997</v>
+        <v>3867</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3998</v>
+        <v>3868</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>RIGHT(B11,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4035</v>
+        <v>3869</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4036</v>
+        <v>3870</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>RIGHT(B12,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>4026</v>
+        <v>3871</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4027</v>
+        <v>3872</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>RIGHT(B13,3)</f>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>3879</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>3880</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f>RIGHT(B14,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>3881</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>3882</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f>RIGHT(B15,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>3883</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>3884</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f>RIGHT(B16,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>3885</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>3886</v>
       </c>
-      <c r="C17" s="1" t="str">
-        <f>RIGHT(B17,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>3887</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>3888</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f>RIGHT(B18,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3873</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3874</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>RIGHT(B19,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3875</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3876</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f>RIGHT(B20,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>3877</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3878</v>
-      </c>
       <c r="C21" s="1" t="str">
-        <f>RIGHT(B21,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>3893</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>3894</v>
       </c>
-      <c r="C22" s="1" t="str">
-        <f>RIGHT(B22,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3895</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3903</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>3905</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="C23" s="1" t="str">
-        <f>RIGHT(B23,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>3907</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>3908</v>
       </c>
-      <c r="C24" s="1" t="str">
-        <f>RIGHT(B24,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>3909</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>3910</v>
       </c>
-      <c r="C25" s="1" t="str">
-        <f>RIGHT(B25,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>3911</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>3912</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f>RIGHT(B26,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>3913</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>3914</v>
       </c>
-      <c r="C27" s="1" t="str">
-        <f>RIGHT(B27,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C34" s="1" t="str">
+        <f t="shared" ref="C34:C65" si="1">RIGHT(B34,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>3915</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>3916</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f>RIGHT(B28,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>3917</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>3918</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f>RIGHT(B29,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>3919</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>3920</v>
       </c>
-      <c r="C30" s="1" t="str">
-        <f>RIGHT(B30,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>3921</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>3922</v>
       </c>
-      <c r="C31" s="1" t="str">
-        <f>RIGHT(B31,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>3889</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3890</v>
-      </c>
-      <c r="C32" s="1" t="str">
-        <f>RIGHT(B32,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>3891</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3892</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f>RIGHT(B33,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3895</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3896</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f>RIGHT(B34,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>3897</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3898</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f>RIGHT(B35,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3899</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3900</v>
-      </c>
-      <c r="C36" s="1" t="str">
-        <f>RIGHT(B36,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3901</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3902</v>
-      </c>
-      <c r="C37" s="1" t="str">
-        <f>RIGHT(B37,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>3903</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3904</v>
-      </c>
       <c r="C38" s="1" t="str">
-        <f>RIGHT(B38,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3923</v>
       </c>
@@ -53412,11 +54419,11 @@
         <v>3924</v>
       </c>
       <c r="C39" s="1" t="str">
-        <f>RIGHT(B39,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>3925</v>
       </c>
@@ -53424,11 +54431,11 @@
         <v>3926</v>
       </c>
       <c r="C40" s="1" t="str">
-        <f>RIGHT(B40,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3927</v>
       </c>
@@ -53436,11 +54443,11 @@
         <v>3928</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f>RIGHT(B41,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3929</v>
       </c>
@@ -53448,623 +54455,623 @@
         <v>3930</v>
       </c>
       <c r="C42" s="1" t="str">
-        <f>RIGHT(B42,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>3935</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>3936</v>
       </c>
-      <c r="C43" s="1" t="str">
-        <f>RIGHT(B43,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>3937</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>3938</v>
       </c>
-      <c r="C44" s="1" t="str">
-        <f>RIGHT(B44,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>3939</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>3940</v>
       </c>
-      <c r="C45" s="1" t="str">
-        <f>RIGHT(B45,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>3941</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>3942</v>
       </c>
-      <c r="C46" s="1" t="str">
-        <f>RIGHT(B46,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>3943</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>3944</v>
       </c>
-      <c r="C47" s="1" t="str">
-        <f>RIGHT(B47,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>3945</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>3946</v>
       </c>
-      <c r="C48" s="1" t="str">
-        <f>RIGHT(B48,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>3947</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>3948</v>
       </c>
-      <c r="C49" s="1" t="str">
-        <f>RIGHT(B49,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>3949</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>3950</v>
       </c>
-      <c r="C50" s="1" t="str">
-        <f>RIGHT(B50,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>3865</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3866</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f>RIGHT(B51,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>3867</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3868</v>
-      </c>
       <c r="C52" s="1" t="str">
-        <f>RIGHT(B52,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>3869</v>
+        <v>1684</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3870</v>
+        <v>3951</v>
       </c>
       <c r="C53" s="1" t="str">
-        <f>RIGHT(B53,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>3871</v>
+        <v>1686</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3872</v>
+        <v>3952</v>
       </c>
       <c r="C54" s="1" t="str">
-        <f>RIGHT(B54,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3863</v>
+        <v>1688</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3864</v>
+        <v>3953</v>
       </c>
       <c r="C55" s="1" t="str">
-        <f>RIGHT(B55,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>3931</v>
+        <v>1678</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3932</v>
+        <v>3954</v>
       </c>
       <c r="C56" s="1" t="str">
-        <f>RIGHT(B56,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>3933</v>
+        <v>1680</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3934</v>
+        <v>3955</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>RIGHT(B57,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>3958</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>3959</v>
       </c>
-      <c r="C58" s="1" t="str">
-        <f>RIGHT(B58,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>3960</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>3961</v>
       </c>
-      <c r="C59" s="1" t="str">
-        <f>RIGHT(B59,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>3956</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>3957</v>
-      </c>
       <c r="C60" s="1" t="str">
-        <f>RIGHT(B60,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>4002</v>
       </c>
-      <c r="C61" s="1" t="str">
-        <f>RIGHT(B61,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>4003</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>4004</v>
       </c>
-      <c r="C62" s="1" t="str">
-        <f>RIGHT(B62,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>3999</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>4000</v>
-      </c>
       <c r="C63" s="1" t="str">
-        <f>RIGHT(B63,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>3974</v>
+        <v>4011</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3975</v>
+        <v>4006</v>
       </c>
       <c r="C64" s="1" t="str">
-        <f>RIGHT(B64,3)</f>
-        <v>baf</v>
+        <f t="shared" si="1"/>
+        <v>wav</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>3859</v>
+        <v>4013</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3860</v>
+        <v>4008</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>RIGHT(B65,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>3987</v>
+        <v>4015</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3988</v>
+        <v>4010</v>
       </c>
       <c r="C66" s="1" t="str">
-        <f>RIGHT(B66,3)</f>
-        <v>dlg</v>
+        <f t="shared" ref="C66:C97" si="2">RIGHT(B66,3)</f>
+        <v>wav</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>4844</v>
+        <v>4017</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4845</v>
+        <v>4012</v>
       </c>
       <c r="C67" s="1" t="str">
-        <f>RIGHT(B67,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>4868</v>
+        <v>4019</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4869</v>
+        <v>4014</v>
       </c>
       <c r="C68" s="1" t="str">
-        <f>RIGHT(B68,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>3976</v>
+        <v>4021</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3977</v>
+        <v>4016</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>RIGHT(B69,3)</f>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>4023</v>
+        <v>1784</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4024</v>
+        <v>4018</v>
       </c>
       <c r="C70" s="1" t="str">
-        <f>RIGHT(B70,3)</f>
-        <v>baf</v>
+        <f t="shared" si="2"/>
+        <v>wav</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>3995</v>
+        <v>1782</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3996</v>
+        <v>4020</v>
       </c>
       <c r="C71" s="1" t="str">
-        <f>RIGHT(B71,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>4033</v>
+        <v>1788</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4034</v>
+        <v>4022</v>
       </c>
       <c r="C72" s="1" t="str">
-        <f>RIGHT(B72,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>4290</v>
+        <v>1790</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4863</v>
+        <v>4832</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>RIGHT(B73,3)</f>
-        <v>baf</v>
+        <f t="shared" si="2"/>
+        <v>wav</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>4846</v>
+        <v>1780</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4847</v>
+        <v>4833</v>
       </c>
       <c r="C74" s="1" t="str">
-        <f>RIGHT(B74,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>4870</v>
+        <v>1786</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4871</v>
+        <v>4835</v>
       </c>
       <c r="C75" s="1" t="str">
-        <f>RIGHT(B75,3)</f>
-        <v>dlg</v>
+        <f t="shared" si="2"/>
+        <v>wav</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>4848</v>
+        <v>3962</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>4849</v>
+        <v>3963</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>RIGHT(B76,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>4872</v>
+        <v>3964</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4873</v>
+        <v>3965</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>RIGHT(B77,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>4861</v>
+        <v>3966</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>4862</v>
+        <v>3967</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>RIGHT(B78,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>4852</v>
+        <v>3968</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4853</v>
+        <v>3969</v>
       </c>
       <c r="C79" s="1" t="str">
-        <f>RIGHT(B79,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>4876</v>
+        <v>3970</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>4877</v>
+        <v>3971</v>
       </c>
       <c r="C80" s="1" t="str">
-        <f>RIGHT(B80,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>3966</v>
+        <v>3972</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>3967</v>
+        <v>3973</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>RIGHT(B81,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>3970</v>
+        <v>3974</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>3971</v>
+        <v>3975</v>
       </c>
       <c r="C82" s="1" t="str">
-        <f>RIGHT(B82,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>4864</v>
+        <v>3422</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4865</v>
+        <v>4024</v>
       </c>
       <c r="C83" s="1" t="str">
-        <f>RIGHT(B83,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>3962</v>
+        <v>4026</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3963</v>
+        <v>5201</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f>RIGHT(B84,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>3983</v>
+        <v>3802</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3984</v>
+        <v>5202</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f>RIGHT(B85,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>3964</v>
+        <v>2354</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3965</v>
+        <v>4027</v>
       </c>
       <c r="C86" s="1" t="str">
-        <f>RIGHT(B86,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>4858</v>
+        <v>3336</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4859</v>
+        <v>4028</v>
       </c>
       <c r="C87" s="1" t="str">
-        <f>RIGHT(B87,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5203</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>4850</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4840</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>4851</v>
       </c>
-      <c r="C88" s="1" t="str">
-        <f>RIGHT(B88,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>4874</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>4875</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <f>RIGHT(B89,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>4263</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>4860</v>
-      </c>
-      <c r="C90" s="1" t="str">
-        <f>RIGHT(B90,3)</f>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>3972</v>
-      </c>
       <c r="B91" s="1" t="s">
-        <v>3973</v>
+        <v>5204</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>RIGHT(B91,3)</f>
+        <f t="shared" si="2"/>
         <v>baf</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>3861</v>
+        <v>3976</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3862</v>
+        <v>3977</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f>RIGHT(B92,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>3989</v>
+        <v>3978</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>3990</v>
+        <v>3979</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f>RIGHT(B93,3)</f>
-        <v>dlg</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>3980</v>
       </c>
@@ -54072,167 +55079,167 @@
         <v>3981</v>
       </c>
       <c r="C94" s="1" t="str">
-        <f>RIGHT(B94,3)</f>
+        <f t="shared" si="2"/>
         <v>itm</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>3857</v>
+        <v>3728</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3858</v>
+        <v>3982</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f>RIGHT(B95,3)</f>
-        <v>cre</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5205</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" ref="C98:C129" si="3">RIGHT(B98,3)</f>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>3985</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>3986</v>
       </c>
-      <c r="C96" s="1" t="str">
-        <f>RIGHT(B96,3)</f>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>3968</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>3969</v>
-      </c>
-      <c r="C97" s="1" t="str">
-        <f>RIGHT(B97,3)</f>
-        <v>baf</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>4854</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <f>RIGHT(B98,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>4855</v>
-      </c>
-      <c r="C99" s="1" t="str">
-        <f>RIGHT(B99,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>3978</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>3979</v>
-      </c>
-      <c r="C100" s="1" t="str">
-        <f>RIGHT(B100,3)</f>
-        <v>itm</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>1652</v>
+        <v>3987</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>4856</v>
+        <v>3988</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f>RIGHT(B101,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>1654</v>
+        <v>3989</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>4857</v>
+        <v>3990</v>
       </c>
       <c r="C102" s="1" t="str">
-        <f>RIGHT(B102,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>1678</v>
+        <v>4035</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3954</v>
+        <v>4034</v>
       </c>
       <c r="C103" s="1" t="str">
-        <f>RIGHT(B103,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>1680</v>
+        <v>4841</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3955</v>
+        <v>4036</v>
       </c>
       <c r="C104" s="1" t="str">
-        <f>RIGHT(B104,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>1684</v>
+        <v>4858</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3951</v>
+        <v>4842</v>
       </c>
       <c r="C105" s="1" t="str">
-        <f>RIGHT(B105,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>1686</v>
+        <v>3991</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>3952</v>
+        <v>3992</v>
       </c>
       <c r="C106" s="1" t="str">
-        <f>RIGHT(B106,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>1688</v>
+        <v>3993</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>3953</v>
+        <v>3994</v>
       </c>
       <c r="C107" s="1" t="str">
-        <f>RIGHT(B107,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1780</v>
       </c>
@@ -54240,11 +55247,11 @@
         <v>4836</v>
       </c>
       <c r="C108" s="1" t="str">
-        <f>RIGHT(B108,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1782</v>
       </c>
@@ -54252,11 +55259,11 @@
         <v>4833</v>
       </c>
       <c r="C109" s="1" t="str">
-        <f>RIGHT(B109,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1784</v>
       </c>
@@ -54264,11 +55271,11 @@
         <v>4832</v>
       </c>
       <c r="C110" s="1" t="str">
-        <f>RIGHT(B110,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1786</v>
       </c>
@@ -54276,11 +55283,11 @@
         <v>4837</v>
       </c>
       <c r="C111" s="1" t="str">
-        <f>RIGHT(B111,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1788</v>
       </c>
@@ -54288,11 +55295,11 @@
         <v>4834</v>
       </c>
       <c r="C112" s="1" t="str">
-        <f>RIGHT(B112,3)</f>
-        <v>wav</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1790</v>
       </c>
@@ -54300,7 +55307,7 @@
         <v>4835</v>
       </c>
       <c r="C113" s="1" t="str">
-        <f>RIGHT(B113,3)</f>
+        <f t="shared" si="3"/>
         <v>wav</v>
       </c>
     </row>
@@ -54312,11 +55319,11 @@
         <v>3856</v>
       </c>
       <c r="C114" s="1" t="str">
-        <f>RIGHT(B114,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>4031</v>
       </c>
@@ -54324,11 +55331,11 @@
         <v>4032</v>
       </c>
       <c r="C115" s="1" t="str">
-        <f>RIGHT(B115,3)</f>
+        <f t="shared" si="3"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>4029</v>
       </c>
@@ -54336,11 +55343,11 @@
         <v>4030</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f>RIGHT(B116,3)</f>
+        <f t="shared" si="3"/>
         <v>bmp</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3993</v>
       </c>
@@ -54348,11 +55355,11 @@
         <v>3994</v>
       </c>
       <c r="C117" s="1" t="str">
-        <f>RIGHT(B117,3)</f>
+        <f t="shared" si="3"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>3991</v>
       </c>
@@ -54360,11 +55367,11 @@
         <v>3992</v>
       </c>
       <c r="C118" s="1" t="str">
-        <f>RIGHT(B118,3)</f>
+        <f t="shared" si="3"/>
         <v>bam</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>2354</v>
       </c>
@@ -54372,7 +55379,7 @@
         <v>4838</v>
       </c>
       <c r="C119" s="1" t="str">
-        <f>RIGHT(B119,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
@@ -54384,11 +55391,11 @@
         <v>4831</v>
       </c>
       <c r="C120" s="1" t="str">
-        <f>RIGHT(B120,3)</f>
+        <f t="shared" si="3"/>
         <v>cre</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>4841</v>
       </c>
@@ -54396,23 +55403,23 @@
         <v>4842</v>
       </c>
       <c r="C121" s="1" t="str">
-        <f>RIGHT(B121,3)</f>
+        <f t="shared" si="3"/>
         <v>dlg</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>3094</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>4866</v>
+        <v>4852</v>
       </c>
       <c r="C122" s="1" t="str">
-        <f>RIGHT(B122,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>3102</v>
       </c>
@@ -54420,11 +55427,11 @@
         <v>4840</v>
       </c>
       <c r="C123" s="1" t="str">
-        <f>RIGHT(B123,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>3336</v>
       </c>
@@ -54432,11 +55439,11 @@
         <v>4839</v>
       </c>
       <c r="C124" s="1" t="str">
-        <f>RIGHT(B124,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>3422</v>
       </c>
@@ -54444,23 +55451,23 @@
         <v>4025</v>
       </c>
       <c r="C125" s="1" t="str">
-        <f>RIGHT(B125,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>4741</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>4867</v>
+        <v>4853</v>
       </c>
       <c r="C126" s="1" t="str">
-        <f>RIGHT(B126,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>3728</v>
       </c>
@@ -54468,11 +55475,11 @@
         <v>3982</v>
       </c>
       <c r="C127" s="1" t="str">
-        <f>RIGHT(B127,3)</f>
+        <f t="shared" si="3"/>
         <v>itm</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>3802</v>
       </c>
@@ -54480,7 +55487,7 @@
         <v>4028</v>
       </c>
       <c r="C128" s="1" t="str">
-        <f>RIGHT(B128,3)</f>
+        <f t="shared" si="3"/>
         <v>baf</v>
       </c>
     </row>
@@ -54491,4 +55498,2472 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C195"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4038</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4859</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C65" si="0">RIGHT(B2,3)</f>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4860</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4861</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4862</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3995</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4866</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4868</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4870</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4872</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4874</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5151</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4877</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4880</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4882</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5154</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5156</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5158</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4897</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5159</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4899</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5160</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>cre</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4901</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4903</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4904</v>
+      </c>
+      <c r="C33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4905</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4906</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4907</v>
+      </c>
+      <c r="C36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4910</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4911</v>
+      </c>
+      <c r="C39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5162</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5163</v>
+      </c>
+      <c r="C42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4928</v>
+      </c>
+      <c r="C43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4926</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4924</v>
+      </c>
+      <c r="C45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4922</v>
+      </c>
+      <c r="C46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4913</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>4915</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>4920</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4917</v>
+      </c>
+      <c r="C49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4930</v>
+      </c>
+      <c r="C50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4932</v>
+      </c>
+      <c r="C51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4934</v>
+      </c>
+      <c r="C53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>4936</v>
+      </c>
+      <c r="C54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4939</v>
+      </c>
+      <c r="C55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4941</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>4937</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>4938</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4943</v>
+      </c>
+      <c r="C58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>4940</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>4942</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5166</v>
+      </c>
+      <c r="C60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>4944</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>4950</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4953</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4955</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>4957</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="C66" s="3" t="str">
+        <f t="shared" ref="C66:C129" si="1">RIGHT(B66,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>4961</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>4963</v>
+      </c>
+      <c r="C68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>4965</v>
+      </c>
+      <c r="C69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>4967</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4969</v>
+      </c>
+      <c r="C71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>4971</v>
+      </c>
+      <c r="C72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4973</v>
+      </c>
+      <c r="C73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4975</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>4977</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4979</v>
+      </c>
+      <c r="C76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4981</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4983</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>4985</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4987</v>
+      </c>
+      <c r="C80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4989</v>
+      </c>
+      <c r="C81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>4991</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>4993</v>
+      </c>
+      <c r="C83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>5167</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4997</v>
+      </c>
+      <c r="C86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>5002</v>
+      </c>
+      <c r="C88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>5004</v>
+      </c>
+      <c r="C89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>5008</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>5168</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>5010</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5007</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>5015</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>5017</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>5019</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>5021</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>5016</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>5018</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5025</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>5020</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5027</v>
+      </c>
+      <c r="C101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>5029</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>5031</v>
+      </c>
+      <c r="C104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>5032</v>
+      </c>
+      <c r="C105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5033</v>
+      </c>
+      <c r="C106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5035</v>
+      </c>
+      <c r="C108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>5038</v>
+      </c>
+      <c r="C111" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>5039</v>
+      </c>
+      <c r="C112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>5040</v>
+      </c>
+      <c r="C113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>5169</v>
+      </c>
+      <c r="C114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5041</v>
+      </c>
+      <c r="C115" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5171</v>
+      </c>
+      <c r="C119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>5045</v>
+      </c>
+      <c r="C120" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>5044</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C121" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5046</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C122" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>5174</v>
+      </c>
+      <c r="C123" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>5051</v>
+      </c>
+      <c r="C124" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C125" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>5053</v>
+      </c>
+      <c r="C126" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>5175</v>
+      </c>
+      <c r="C127" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>5176</v>
+      </c>
+      <c r="C128" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>5177</v>
+      </c>
+      <c r="C129" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>5058</v>
+      </c>
+      <c r="C130" s="3" t="str">
+        <f t="shared" ref="C130:C193" si="2">RIGHT(B130,3)</f>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>5055</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>5178</v>
+      </c>
+      <c r="C131" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5056</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C132" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>5180</v>
+      </c>
+      <c r="C133" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>5063</v>
+      </c>
+      <c r="C134" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>5060</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="C135" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>5181</v>
+      </c>
+      <c r="C136" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>5062</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>5182</v>
+      </c>
+      <c r="C137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>5183</v>
+      </c>
+      <c r="C138" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>5184</v>
+      </c>
+      <c r="C139" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5185</v>
+      </c>
+      <c r="C140" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wav</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C141" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>3970</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>5067</v>
+      </c>
+      <c r="C142" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>5068</v>
+      </c>
+      <c r="C143" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>5069</v>
+      </c>
+      <c r="C144" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>5073</v>
+      </c>
+      <c r="C145" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>5071</v>
+      </c>
+      <c r="C146" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>5078</v>
+      </c>
+      <c r="C147" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>5080</v>
+      </c>
+      <c r="C148" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>5081</v>
+      </c>
+      <c r="C149" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C150" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>5082</v>
+      </c>
+      <c r="C151" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>5084</v>
+      </c>
+      <c r="C152" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>5186</v>
+      </c>
+      <c r="C153" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>5187</v>
+      </c>
+      <c r="C154" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>5086</v>
+      </c>
+      <c r="C155" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C156" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>5087</v>
+      </c>
+      <c r="C157" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>5189</v>
+      </c>
+      <c r="C158" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>5089</v>
+      </c>
+      <c r="C159" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>5190</v>
+      </c>
+      <c r="C160" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>5191</v>
+      </c>
+      <c r="C161" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>5192</v>
+      </c>
+      <c r="C162" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>baf</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>5093</v>
+      </c>
+      <c r="C163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C164" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>5097</v>
+      </c>
+      <c r="C165" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>5099</v>
+      </c>
+      <c r="C166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>5193</v>
+      </c>
+      <c r="C167" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>5194</v>
+      </c>
+      <c r="C168" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bmp</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>5100</v>
+      </c>
+      <c r="C169" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C170" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>4856</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>5102</v>
+      </c>
+      <c r="C171" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>5103</v>
+      </c>
+      <c r="C172" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>5105</v>
+      </c>
+      <c r="C173" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>5195</v>
+      </c>
+      <c r="C174" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>5196</v>
+      </c>
+      <c r="C175" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>5109</v>
+      </c>
+      <c r="C176" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>5111</v>
+      </c>
+      <c r="C177" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>5113</v>
+      </c>
+      <c r="C178" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>5115</v>
+      </c>
+      <c r="C179" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>5114</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>5117</v>
+      </c>
+      <c r="C180" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>5197</v>
+      </c>
+      <c r="C181" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>dlg</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>5118</v>
+      </c>
+      <c r="C182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>5198</v>
+      </c>
+      <c r="C183" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>5120</v>
+      </c>
+      <c r="C184" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>5119</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>5122</v>
+      </c>
+      <c r="C185" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>5199</v>
+      </c>
+      <c r="C186" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>5200</v>
+      </c>
+      <c r="C187" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>itm</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>5124</v>
+      </c>
+      <c r="C188" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>5126</v>
+      </c>
+      <c r="C189" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C190" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>5130</v>
+      </c>
+      <c r="C191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>5132</v>
+      </c>
+      <c r="C192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>5134</v>
+      </c>
+      <c r="C193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>5135</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>5136</v>
+      </c>
+      <c r="C194" s="3" t="str">
+        <f t="shared" ref="C194:C195" si="3">RIGHT(B194,3)</f>
+        <v>bam</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C195" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>bam</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C195" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="cre"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7396A7E2-6D30-475B-959F-A6356363BEFD}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4037</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5140</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" ref="C2:C7" si="0">RIGHT(B2,3)</f>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5142</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>are</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5146</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>wed</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5148</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tis</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tis</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{7396A7E2-6D30-475B-959F-A6356363BEFD}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EE/rbg/referenceTable.xlsx
+++ b/EE/rbg/referenceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\EE\rbg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0EECEE-DD6E-4973-89C4-117CDDC5687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD5D676-DC28-4645-A3C7-E1AC1FC334FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" activeTab="3" xr2:uid="{D4650CF6-309F-401E-B710-24887B7F9B60}"/>
   </bookViews>
   <sheets>
     <sheet name="Block A" sheetId="4" r:id="rId1"/>
@@ -55127,7 +55127,7 @@
         <v>4032</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f t="shared" ref="C98:C129" si="3">RIGHT(B98,3)</f>
+        <f t="shared" ref="C98:C128" si="3">RIGHT(B98,3)</f>
         <v>bmp</v>
       </c>
     </row>
@@ -55875,7 +55875,7 @@
         <v>cre</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4900</v>
       </c>
@@ -55887,7 +55887,7 @@
         <v>are</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4902</v>
       </c>
@@ -57859,6 +57859,7 @@
   <autoFilter ref="A1:C195" xr:uid="{A8F845C5-1DFB-4DB9-9EFF-7FD24A274361}">
     <filterColumn colId="2">
       <filters>
+        <filter val="are"/>
         <filter val="cre"/>
       </filters>
     </filterColumn>
